--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2031644.416479915</v>
+        <v>2029248.760474733</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>42.76734719401151</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>38.54824791147141</v>
+        <v>412.2877386950442</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>94.2401475588522</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734244</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906504</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.8555903183376</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713016</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>263.8534790963691</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>97.91619205212083</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186934</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>253.8207281244498</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>19.05685276671171</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.71437374394024</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>191.7026387693928</v>
+        <v>5.938671778665441</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>313.4409126298465</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186934</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>126.4734099989318</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.71437374394024</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555389</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>34.43739670195698</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>228.707136473197</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999732</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101264</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>96.99837838564358</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>111.3213230702134</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740329</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>87.2147151485285</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141398</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,55 +4304,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>908.6300438698356</v>
+        <v>925.303617584568</v>
       </c>
       <c r="C2" t="n">
-        <v>908.6300438698356</v>
+        <v>882.1042769845563</v>
       </c>
       <c r="D2" t="n">
-        <v>908.6300438698356</v>
+        <v>882.1042769845563</v>
       </c>
       <c r="E2" t="n">
-        <v>908.6300438698356</v>
+        <v>882.1042769845563</v>
       </c>
       <c r="F2" t="n">
-        <v>497.6441390802281</v>
+        <v>875.1587762353529</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272266</v>
+        <v>458.7065149272275</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>293.3053724073749</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872677</v>
+        <v>776.0043429178213</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054598</v>
+        <v>1013.627124136011</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463063</v>
+        <v>1309.697690693611</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698648</v>
+        <v>1950.720900313505</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>2225.837119630137</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2426.141446919238</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S2" t="n">
         <v>2448.259651016315</v>
@@ -4361,19 +4361,19 @@
         <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459332</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115761</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1298.769375845647</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>1298.769375845647</v>
+        <v>925.303617584568</v>
       </c>
       <c r="Y2" t="n">
-        <v>908.6300438698356</v>
+        <v>925.303617584568</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686811</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.9974213009385</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>201.9455071369546</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>585.1891840496851</v>
       </c>
       <c r="L3" t="n">
-        <v>1161.911999152943</v>
+        <v>1161.911999152939</v>
       </c>
       <c r="M3" t="n">
-        <v>1425.851530648431</v>
+        <v>1512.968691787253</v>
       </c>
       <c r="N3" t="n">
-        <v>1711.185401081764</v>
+        <v>1798.302562220584</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067085</v>
+        <v>2037.107513972041</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2524.714615879287</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R3" t="n">
         <v>2589.992766140986</v>
@@ -4440,7 +4440,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.79985532281972</v>
+        <v>314.6285669616254</v>
       </c>
       <c r="C4" t="n">
-        <v>51.79985532281972</v>
+        <v>314.6285669616254</v>
       </c>
       <c r="D4" t="n">
-        <v>51.79985532281972</v>
+        <v>314.6285669616254</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>314.6285669616254</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018363</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159861</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341292</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666685</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092684</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357422</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993466</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361115</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1108.730062521417</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>884.3189032968548</v>
       </c>
       <c r="U4" t="n">
-        <v>1044.683643607215</v>
+        <v>595.1822762889569</v>
       </c>
       <c r="V4" t="n">
-        <v>789.9991554013277</v>
+        <v>496.2770317918652</v>
       </c>
       <c r="W4" t="n">
-        <v>500.5819853643671</v>
+        <v>496.2770317918652</v>
       </c>
       <c r="X4" t="n">
-        <v>272.5924344663498</v>
+        <v>496.2770317918652</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.79985532281972</v>
+        <v>496.2770317918652</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1439.787835839974</v>
+        <v>1598.49297013392</v>
       </c>
       <c r="C5" t="n">
-        <v>1070.825318899562</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="D5" t="n">
-        <v>712.559620292812</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="E5" t="n">
-        <v>326.7713676945678</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F5" t="n">
-        <v>319.8258669453643</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
-        <v>308.1844291859003</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281975</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281975</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J5" t="n">
         <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135518</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
@@ -4580,13 +4580,13 @@
         <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645559</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507464</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R5" t="n">
         <v>2589.992766140987</v>
@@ -4595,22 +4595,22 @@
         <v>2589.992766140987</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140987</v>
+        <v>2381.347406599814</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140987</v>
+        <v>2381.347406599814</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140987</v>
+        <v>2362.098060370812</v>
       </c>
       <c r="W5" t="n">
-        <v>2589.992766140987</v>
+        <v>2362.098060370812</v>
       </c>
       <c r="X5" t="n">
-        <v>2216.527007879908</v>
+        <v>1988.632302109732</v>
       </c>
       <c r="Y5" t="n">
-        <v>1826.387675904096</v>
+        <v>1598.49297013392</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281975</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J6" t="n">
-        <v>240.115382809621</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431321</v>
+        <v>426.7768722128337</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594469</v>
+        <v>724.0888213291485</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951773</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277515</v>
+        <v>1480.804272147217</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993046</v>
+        <v>2121.827481767111</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858065</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>620.1252058614371</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="C7" t="n">
-        <v>620.1252058614371</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D7" t="n">
-        <v>620.1252058614371</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E7" t="n">
-        <v>472.2121122790439</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3221647811336</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281975</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080558</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121974</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225447</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317426</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
         <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
-        <v>1391.6026718971</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
         <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153879</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153879</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1453.344641093886</v>
+        <v>1342.413983554585</v>
       </c>
       <c r="U7" t="n">
-        <v>1164.226864104285</v>
+        <v>1053.296206564983</v>
       </c>
       <c r="V7" t="n">
-        <v>909.5423758983977</v>
+        <v>798.611718359096</v>
       </c>
       <c r="W7" t="n">
-        <v>620.1252058614371</v>
+        <v>798.611718359096</v>
       </c>
       <c r="X7" t="n">
-        <v>620.1252058614371</v>
+        <v>570.6221674610787</v>
       </c>
       <c r="Y7" t="n">
-        <v>620.1252058614371</v>
+        <v>349.8295883175485</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>755.9562932262893</v>
+        <v>890.6280335193146</v>
       </c>
       <c r="C8" t="n">
-        <v>386.9937762858776</v>
+        <v>521.6655165789028</v>
       </c>
       <c r="D8" t="n">
-        <v>70.38679383148721</v>
+        <v>521.6655165789028</v>
       </c>
       <c r="E8" t="n">
-        <v>70.38679383148721</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228374</v>
+        <v>128.9317632314552</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281975</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281975</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281975</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104783</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135516</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645559</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507464</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
         <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140987</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140987</v>
+        <v>2338.064666369891</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140987</v>
+        <v>2338.064666369891</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797417</v>
+        <v>2007.00177902632</v>
       </c>
       <c r="W8" t="n">
-        <v>1906.161223527303</v>
+        <v>1654.233123756206</v>
       </c>
       <c r="X8" t="n">
-        <v>1532.695465266223</v>
+        <v>1280.767365495126</v>
       </c>
       <c r="Y8" t="n">
-        <v>1142.556133290411</v>
+        <v>890.6280335193146</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281975</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
-        <v>240.115382809621</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431313</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594462</v>
+        <v>599.2586963421436</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951772</v>
+        <v>965.564585834469</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277515</v>
+        <v>1606.587795454363</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993046</v>
+        <v>1941.516476169894</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858065</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.4409679372618</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="C10" t="n">
-        <v>531.5047850093549</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="D10" t="n">
-        <v>381.3881455970192</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="E10" t="n">
-        <v>233.475052014626</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="F10" t="n">
-        <v>86.58510451671569</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281975</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281975</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281975</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>77.9810806808056</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121974</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225447</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317426</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1391.6026718971</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
         <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153879</v>
+        <v>1424.04909569586</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153879</v>
+        <v>1134.931318706258</v>
       </c>
       <c r="V10" t="n">
-        <v>1392.299181947992</v>
+        <v>880.2468305003712</v>
       </c>
       <c r="W10" t="n">
-        <v>1102.882011911032</v>
+        <v>649.2295209314854</v>
       </c>
       <c r="X10" t="n">
-        <v>1102.882011911032</v>
+        <v>421.239970033468</v>
       </c>
       <c r="Y10" t="n">
-        <v>882.0894327675015</v>
+        <v>200.4473908899379</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5048,10 +5048,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400662</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400662</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400662</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487562</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510503</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854701</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648814</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611853</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138361</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703059</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,43 +5270,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,25 +5413,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C19" t="n">
-        <v>467.7318369701959</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5738,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565524</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683104</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797191</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706077</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427008</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2426.8463580632</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085243</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879356</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443776</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008474</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134625</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192548</v>
@@ -6701,16 +6701,16 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>216.8470138298233</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="38">
@@ -7163,34 +7163,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7418,16 +7418,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="44">
@@ -7640,28 +7640,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079757</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,19 +7988,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659714</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>62.22611909363189</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159832</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>87.99713246346391</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>196.3826133675373</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740387</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>309.1863928326899</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>74.65481927719878</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906574</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740378</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>253.145099287022</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>256.7871481632763</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906571</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.063451355892333e-12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659592</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>18.49466557218919</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462203</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.45968844823103</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>106.0841272570749</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823595</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>138.4949402405086</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667984</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572567992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>895743.5319448079</v>
+        <v>895743.5319448083</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>872737.2662489546</v>
+        <v>872737.2662489547</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>872737.2662489546</v>
+        <v>872737.2662489547</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>852993.4253596172</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>852993.4253596176</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="F2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>565002.6197830049</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830047</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753946</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898929</v>
+        <v>172764.3597898963</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.86774575</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042351</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151605</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252478</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252478</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695037</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
+        <v>6287.480531695056</v>
+      </c>
+      <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="H4" t="n">
-        <v>6287.480531695042</v>
-      </c>
       <c r="I4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695058</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695056</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695042</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695002</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695051</v>
@@ -26457,7 +26457,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699082</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150963</v>
+        <v>93481.08936150961</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150963</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-614084.6106825509</v>
+        <v>-614084.6106825477</v>
       </c>
       <c r="C6" t="n">
-        <v>179417.0350283481</v>
+        <v>179417.0350283446</v>
       </c>
       <c r="D6" t="n">
-        <v>352181.3948182407</v>
+        <v>352181.394818241</v>
       </c>
       <c r="E6" t="n">
-        <v>-43296.25831834762</v>
+        <v>-43330.99624378404</v>
       </c>
       <c r="F6" t="n">
-        <v>457592.6094274021</v>
+        <v>457557.8715019666</v>
       </c>
       <c r="G6" t="n">
-        <v>457592.6094274023</v>
+        <v>457557.8715019665</v>
       </c>
       <c r="H6" t="n">
-        <v>457592.6094274022</v>
+        <v>457557.8715019667</v>
       </c>
       <c r="I6" t="n">
-        <v>457592.6094274024</v>
+        <v>457557.8715019665</v>
       </c>
       <c r="J6" t="n">
-        <v>288178.5926013543</v>
+        <v>288143.8546759185</v>
       </c>
       <c r="K6" t="n">
-        <v>457592.6094274024</v>
+        <v>457557.871501967</v>
       </c>
       <c r="L6" t="n">
-        <v>457592.6094274022</v>
+        <v>457557.8715019668</v>
       </c>
       <c r="M6" t="n">
-        <v>326708.1525231674</v>
+        <v>326673.4145977314</v>
       </c>
       <c r="N6" t="n">
-        <v>457592.6094274026</v>
+        <v>457557.8715019665</v>
       </c>
       <c r="O6" t="n">
-        <v>457592.6094274023</v>
+        <v>457557.8715019667</v>
       </c>
       <c r="P6" t="n">
-        <v>457592.6094274024</v>
+        <v>457557.8715019667</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976066</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498449</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498452</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352469</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352469</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,49 +26957,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976066</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522341</v>
+        <v>189.7254341522381</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>428.2691096918292</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>428.2691096918286</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644013</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352469</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644015</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644013</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>322.505544576996</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>373.7394907835727</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>150.2028876639206</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>116.4834600519701</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.39178164144988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>154.2214512717072</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>46.96555912400996</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>308.6954057034232</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>29.00258994404567</v>
+        <v>214.766556934773</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>41.24212899083648</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484597</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767961</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>80.08549594682889</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>131.8590301487725</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28062,19 +28062,19 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>57.81586186339405</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.916515846374476e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29448,7 +29448,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090879</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625572</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115537</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066884</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.5191561611354</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014917</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682829</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658661</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485874</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775938</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330891</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325338</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282097</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494783</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072702</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.613166585674097</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743141</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307748</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859901</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.4910271261546</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605096</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911955</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240715</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257138</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433283</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.91929960289</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526427</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969209</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993398</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.1061293806364538</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651422</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351901</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777185</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.6164245685555</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711379</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600305</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932496</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840036</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184392</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351501</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311386</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519936</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567068</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965164</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189581</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265706</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730742</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182605</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793979</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853283</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027923</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839336</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712727</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062754</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086972</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
-        <v>237.3018354237521</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179235</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837064</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612564</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.52107049255622</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583803</v>
@@ -31373,19 +31373,19 @@
         <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041654</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315581</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274807</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157839</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
@@ -31394,7 +31394,7 @@
         <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315819</v>
@@ -31437,10 +31437,10 @@
         <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>15.06611229599261</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
@@ -31449,16 +31449,16 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979553</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
         <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561278</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984513</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662511</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843065</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523075</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265706</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730743</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>145.6403241227263</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182605</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.539404179398</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853284</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027924</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839337</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712728</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062755</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086973</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237521</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179238</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837064</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612564</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255622</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586119</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583804</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675033</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.869479897364</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041655</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315582</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470014</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274808</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157839</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284992</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.14707710384158</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729229</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599261</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425719</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964565</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525413</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979554</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509648</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561278</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984514</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662512</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288119</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843066</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523077</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338208</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>194.5189324111248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338202</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,22 +34208,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>243.9449667520759</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241328</v>
+        <v>487.5747176873196</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315045</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>299.0611783410102</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>277.8951710269007</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223243</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>165.5063830522715</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>151.6622745597322</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>387.1148251643742</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>582.5482980840945</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>354.6027198326411</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>288.2160307407381</v>
       </c>
       <c r="O3" t="n">
-        <v>437.5997363488088</v>
+        <v>241.2171229812694</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>492.5324261689352</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>65.93752551686853</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882727</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.857665945255</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203466</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550902</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632322</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324789</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000435</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.0850811794442</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915742</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153411</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755196</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873427</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495859</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510059</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961994</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321225</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671829</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821471</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482248</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025569</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131504</v>
+        <v>326.6515140903491</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656115</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978366</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266584</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912599</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597959</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
         <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701675</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
         <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.7336217364322</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915742</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344174</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153412</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755197</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873428</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.404120749586</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.007018751006</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342479</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760962</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321225</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671821</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174899</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821472</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482249</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="O9" t="n">
-        <v>338.311798702557</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131506</v>
+        <v>508.7838429764266</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656115</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978369</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266584</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912599</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597959</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301934</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701675</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643223</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394658</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>55.96455263125056</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394599</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060445</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
